--- a/homework/HW_100_Quads_Sensitivity.xlsx
+++ b/homework/HW_100_Quads_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9403F3-58F4-4047-8C8A-C8A70B23B818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFF461-8206-3E46-9F5C-262102ABC016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="32440" windowHeight="20540" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="32440" windowHeight="20540" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -282,11 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478BC81E-E690-314D-8D50-9CE765916133}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -836,10 +836,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>0.25</v>
       </c>
     </row>

--- a/homework/HW_100_Quads_Sensitivity.xlsx
+++ b/homework/HW_100_Quads_Sensitivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFF461-8206-3E46-9F5C-262102ABC016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428802B-B1E3-CA41-BFC9-0649B17B75DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="32440" windowHeight="20540" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="32440" windowHeight="20540" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>QuadOne</t>
   </si>
@@ -113,30 +113,15 @@
     <t>If QuadOne profit increases to $2, is this solution still optimal?</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Allowable Increase is "infinite"</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
-    <t>Allowable decrease is 1. $0.35 is less than 1</t>
-  </si>
-  <si>
     <t>If QuadTwo Profit drops to $0.68, is this solution still optimal?</t>
   </si>
   <si>
     <t>Y/N</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Must rerun.  Allowable decrease is 3.</t>
-  </si>
-  <si>
     <t>Are these constraints binding?</t>
   </si>
   <si>
@@ -156,21 +141,6 @@
   </si>
   <si>
     <t>If any plants saw no increase in the previous question, explain why they didn't:</t>
-  </si>
-  <si>
-    <t>at 12</t>
-  </si>
-  <si>
-    <t>at 16</t>
-  </si>
-  <si>
-    <t>12 vs 21</t>
-  </si>
-  <si>
-    <t>constraint not binding</t>
-  </si>
-  <si>
-    <t>neither has a 0 optimal solution</t>
   </si>
   <si>
     <t>Nachtfliegen Sensitive Quads</t>
@@ -742,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478BC81E-E690-314D-8D50-9CE765916133}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -782,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1"/>
       <c r="I1" s="3"/>
@@ -915,7 +885,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -926,11 +896,9 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -939,126 +907,99 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1067,9 +1008,7 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1078,36 +1017,30 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/homework/HW_100_Quads_Sensitivity.xlsx
+++ b/homework/HW_100_Quads_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428802B-B1E3-CA41-BFC9-0649B17B75DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A55BA-16FB-BC48-B9A9-2535A5B66331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="32440" windowHeight="20540" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="24740" windowHeight="20260" activeTab="1" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -383,6 +383,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>QuadTwo consumes 3 hours in Plant 1, 2 hours in Plant 3, and earns $3 profit.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Plant limts are 12, 16, and 21, respectively.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -739,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5372EA-2666-7649-AF18-437C6C265CD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -752,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/homework/HW_100_Quads_Sensitivity.xlsx
+++ b/homework/HW_100_Quads_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A55BA-16FB-BC48-B9A9-2535A5B66331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DB8D4-A863-7B4E-87C0-027C02F84533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="24740" windowHeight="20260" activeTab="1" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="5880" yWindow="-21140" windowWidth="24740" windowHeight="20260" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -280,15 +280,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>49805</xdr:colOff>
+      <xdr:colOff>49804</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24902</xdr:rowOff>
+      <xdr:colOff>641224</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -303,8 +303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49805" y="56029"/>
-          <a:ext cx="4712696" cy="1406961"/>
+          <a:off x="49804" y="56029"/>
+          <a:ext cx="4731371" cy="1624853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5372EA-2666-7649-AF18-437C6C265CD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/homework/HW_100_Quads_Sensitivity.xlsx
+++ b/homework/HW_100_Quads_Sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DB8D4-A863-7B4E-87C0-027C02F84533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E895B2-16BE-7946-9BD4-24B27769AC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="-21140" windowWidth="24740" windowHeight="20260" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="2620" yWindow="460" windowWidth="24740" windowHeight="20260" activeTab="1" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">base!$E$10</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">base!$E$3</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
@@ -63,44 +63,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
-  <si>
-    <t>QuadOne</t>
-  </si>
-  <si>
-    <t>QuadTwo</t>
-  </si>
-  <si>
-    <t>Unit Profit</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Plant 1</t>
   </si>
   <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
     <t>Plant 2</t>
   </si>
   <si>
     <t>Plant 3</t>
   </si>
   <si>
-    <t>Produce</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Total Profit</t>
-  </si>
-  <si>
     <t>Use the Sensitivity Report to answer these questions:</t>
   </si>
   <si>
@@ -144,25 +123,20 @@
   </si>
   <si>
     <t>Nachtfliegen Sensitive Quads</t>
+  </si>
+  <si>
+    <t>Solve problem here…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,24 +159,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,46 +182,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,7 +322,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>e consumes 4 hours in Plant 2, 1 hour in Plant 3, and earns $2 profit.</a:t>
+            <a:t>e consumes 4 hours in Plant 2, 1 hour in Plant 3, and earns $1 profit.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -726,15 +672,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -745,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5372EA-2666-7649-AF18-437C6C265CD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -758,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,125 +722,74 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="E4" s="8"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>21</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="E9" s="8"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="E11" s="8"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
+      <c r="A14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -902,22 +797,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,22 +820,22 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,22 +843,22 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,31 +866,31 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1003,56 +898,53 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>